--- a/backend/uploads/moneglisedata.xlsx
+++ b/backend/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B94D2-D332-46C8-B434-1D2ED4DB0665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0F768-AF54-46E4-A05D-4F055501F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22305" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -836,15 +836,33 @@
     <t>ASA SY FAMPAHEREZANA</t>
   </si>
   <si>
-    <t>Par virement bancaire
-Par chèque: à l'ordre de FPMA Melun
+    <t>AMF NY ANTSO - TENY FISAORANA.</t>
+  </si>
+  <si>
+    <t>Cellule de prière à distance</t>
+  </si>
+  <si>
+    <t>Sekoly Alahady</t>
+  </si>
+  <si>
+    <t>Sampana Vehivavy Kristianina</t>
+  </si>
+  <si>
+    <t>2024-06-18T21:59:39.000Z</t>
+  </si>
+  <si>
+    <t>Miarahaba antsika amin'ny anaran'ny Tompo ! 
+Araka ny efa nampitaina tamintsika nandritra ny raharaham-piangonana dia  alefa amintsika etoana ny fiche d'adhésion 2024. 
+Afaka manao impression isika ka mitondra izany an-tànana any ampiangonana hanolorana ny KARATRA ADIDY 2024. 
+&lt;/ul&gt;&lt;a href="../assets/docx/adhesion-2024.docx" target="_blank" class="nav-link px-2 text-body-secondary"&gt;  Fiche d adhesion 2024&lt;/a&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Fiche d'adhesion 2024</t>
+  </si>
+  <si>
+    <t>Par virement bancaire &lt;/br&gt;
+Par chèque: à l'ordre de FPMA Melun &lt;/br&gt;
 Par Terminal de paiement électronique (TPE - carte)</t>
-  </si>
-  <si>
-    <t>AMF NY ANTSO - TENY FISAORANA.</t>
-  </si>
-  <si>
-    <t>Cellule de prière à distance</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2002,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>244</v>
@@ -2011,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
@@ -2082,7 +2100,7 @@
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>230</v>
@@ -2140,7 +2158,7 @@
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>230</v>
@@ -2198,7 +2216,7 @@
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>230</v>
@@ -2256,7 +2274,7 @@
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>230</v>
@@ -2314,7 +2332,7 @@
     </row>
     <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>230</v>
@@ -2372,7 +2390,7 @@
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>230</v>
@@ -2430,7 +2448,7 @@
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>230</v>
@@ -2488,7 +2506,7 @@
     </row>
     <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>230</v>
@@ -2546,7 +2564,7 @@
     </row>
     <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>230</v>
@@ -2604,7 +2622,7 @@
     </row>
     <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>230</v>
@@ -2662,7 +2680,7 @@
     </row>
     <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>230</v>
@@ -2720,7 +2738,7 @@
     </row>
     <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>230</v>
@@ -2778,7 +2796,7 @@
     </row>
     <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>230</v>
@@ -2836,7 +2854,7 @@
     </row>
     <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>230</v>
@@ -2894,7 +2912,7 @@
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>230</v>
@@ -2952,7 +2970,7 @@
     </row>
     <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>230</v>
@@ -3010,7 +3028,7 @@
     </row>
     <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>230</v>
@@ -3068,7 +3086,7 @@
     </row>
     <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>230</v>
@@ -3126,7 +3144,7 @@
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>230</v>
@@ -3184,7 +3202,7 @@
     </row>
     <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>230</v>
@@ -3242,7 +3260,7 @@
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>230</v>
@@ -3300,7 +3318,7 @@
     </row>
     <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>230</v>
@@ -3358,7 +3376,7 @@
     </row>
     <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>230</v>
@@ -3416,7 +3434,7 @@
     </row>
     <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>230</v>
@@ -3474,7 +3492,7 @@
     </row>
     <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>230</v>
@@ -3532,7 +3550,7 @@
     </row>
     <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>230</v>
@@ -3590,7 +3608,7 @@
     </row>
     <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>230</v>
@@ -3648,7 +3666,7 @@
     </row>
     <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>230</v>
@@ -3706,7 +3724,7 @@
     </row>
     <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>230</v>
@@ -3764,7 +3782,7 @@
     </row>
     <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>230</v>
@@ -3822,7 +3840,7 @@
     </row>
     <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>230</v>
@@ -3880,7 +3898,7 @@
     </row>
     <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>230</v>
@@ -3938,7 +3956,7 @@
     </row>
     <row r="67" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>230</v>
@@ -3996,7 +4014,7 @@
     </row>
     <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>230</v>
@@ -4054,7 +4072,7 @@
     </row>
     <row r="71" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>230</v>
@@ -4112,7 +4130,7 @@
     </row>
     <row r="73" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>230</v>
@@ -4170,7 +4188,7 @@
     </row>
     <row r="75" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>230</v>
@@ -4228,7 +4246,7 @@
     </row>
     <row r="77" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>230</v>
@@ -4286,7 +4304,7 @@
     </row>
     <row r="79" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>230</v>
@@ -4344,7 +4362,7 @@
     </row>
     <row r="81" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>230</v>
@@ -4402,7 +4420,7 @@
     </row>
     <row r="83" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>230</v>
@@ -4460,7 +4478,7 @@
     </row>
     <row r="85" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>230</v>
@@ -4518,7 +4536,7 @@
     </row>
     <row r="87" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>230</v>
@@ -4562,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4625,7 +4643,15 @@
         <v>248</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>251</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4664,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4764,12 +4790,40 @@
         <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D8">
         <v>101</v>
       </c>
       <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>71</v>
       </c>
     </row>

--- a/backend/uploads/moneglisedata.xlsx
+++ b/backend/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\git\moneglise\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0F768-AF54-46E4-A05D-4F055501F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8EFD3-8ABB-4F07-9B36-33C914F37097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -851,18 +851,18 @@
     <t>2024-06-18T21:59:39.000Z</t>
   </si>
   <si>
+    <t>Fiche d'adhesion 2024</t>
+  </si>
+  <si>
+    <t>Par virement bancaire &lt;/br&gt;
+Par chèque: à l'ordre de FPMA Melun &lt;/br&gt;
+Par Terminal de paiement électronique (TPE - carte)</t>
+  </si>
+  <si>
     <t>Miarahaba antsika amin'ny anaran'ny Tompo ! 
 Araka ny efa nampitaina tamintsika nandritra ny raharaham-piangonana dia  alefa amintsika etoana ny fiche d'adhésion 2024. 
 Afaka manao impression isika ka mitondra izany an-tànana any ampiangonana hanolorana ny KARATRA ADIDY 2024. 
-&lt;/ul&gt;&lt;a href="../assets/docx/adhesion-2024.docx" target="_blank" class="nav-link px-2 text-body-secondary"&gt;  Fiche d adhesion 2024&lt;/a&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Fiche d'adhesion 2024</t>
-  </si>
-  <si>
-    <t>Par virement bancaire &lt;/br&gt;
-Par chèque: à l'ordre de FPMA Melun &lt;/br&gt;
-Par Terminal de paiement électronique (TPE - carte)</t>
+&lt;/ul&gt;&lt;a href="../../assets/docx/adhesion-2024.docx" target="_blank" class="nav-link px-2 text-body-secondary"&gt;  Fiche d adhesion 2024&lt;/a&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -4582,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4643,15 +4643,15 @@
         <v>248</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
